--- a/Assets/Data/Table/Convert/Character_FactionRelation.xlsx
+++ b/Assets/Data/Table/Convert/Character_FactionRelation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E452DAE5-0B02-4B22-BBBF-BA898E76BDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860E5C7F-EE69-41A6-A0C3-4FCAA64A0951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CBF330FD-2A0D-4D8B-AFAB-19A4EE76BB80}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{CBF330FD-2A0D-4D8B-AFAB-19A4EE76BB80}"/>
   </bookViews>
   <sheets>
     <sheet name="FactionRelation" sheetId="4" r:id="rId1"/>
@@ -195,25 +195,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Character.FactionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tb.Character.FactionRelation을 지정해야 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Character.
+    <t>HigherPeople</t>
+  </si>
+  <si>
+    <t>Em.Character.
 FactionRelationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Character.
+  </si>
+  <si>
+    <t>Em.Character.
 FactionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HigherPeople</t>
+  </si>
+  <si>
+    <t>Em.Character.FactionType</t>
   </si>
 </sst>
 </file>
@@ -731,21 +728,21 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.09765625" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="84.6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -785,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="str">
         <f t="shared" ref="A3:A28" si="0">B3&amp;"_"&amp;E3</f>
         <v>Player_Zombie</v>
@@ -807,7 +804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Player_Soldier</v>
@@ -824,10 +821,10 @@
       </c>
       <c r="F4" s="15"/>
       <c r="H4" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Player_Mercenary</v>
@@ -844,10 +841,10 @@
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Soldier_Player</v>
@@ -868,7 +865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Soldier_Resistance</v>
@@ -885,7 +882,7 @@
       </c>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Soldier_Zombie</v>
@@ -902,13 +899,13 @@
       </c>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>HigherPeople_LowerPeople</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>26</v>
@@ -923,13 +920,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>HigherPeople_Resistance</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="22" t="s">
@@ -940,13 +937,13 @@
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>HigherPeople_Zombie</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="22" t="s">
@@ -957,7 +954,7 @@
       </c>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Mercenary_Resistance</v>
@@ -978,7 +975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Mercenary_Zombie</v>
@@ -995,7 +992,7 @@
       </c>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Resistance_Soldier</v>
@@ -1016,7 +1013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Resistance_HigherPeople</v>
@@ -1033,7 +1030,7 @@
       </c>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Resistance_Zombie</v>
@@ -1050,7 +1047,7 @@
       </c>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>LowerPeople_HigherPeople</v>
@@ -1071,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>LowerPeople_Soldier</v>
@@ -1088,7 +1085,7 @@
       </c>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>LowerPeople_Zombie</v>
@@ -1105,7 +1102,7 @@
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>LowerPeople_Mercenary</v>
@@ -1122,7 +1119,7 @@
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Zombie_Player</v>
@@ -1143,7 +1140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Zombie_Soldier</v>
@@ -1160,7 +1157,7 @@
       </c>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Zombie_HigherPeople</v>
@@ -1173,11 +1170,11 @@
         <v>39</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Zombie_Mercenary</v>
@@ -1194,7 +1191,7 @@
       </c>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Zombie_Resistance</v>
@@ -1211,7 +1208,7 @@
       </c>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Zombie_LowerPeople</v>
@@ -1228,7 +1225,7 @@
       </c>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Zombie_Zombie</v>
@@ -1245,7 +1242,7 @@
       </c>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Zombie_Robot</v>
@@ -1262,7 +1259,7 @@
       </c>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="str">
         <f>B29&amp;"_"&amp;E29</f>
         <v>Robot_Zombie</v>
@@ -1283,7 +1280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="str">
         <f>B30&amp;"_"&amp;E30</f>
         <v>Robot_Player</v>
@@ -1300,31 +1297,31 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E38" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
